--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Faculta\Licenta\Phase 1.0 Init Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\Desktop\Faculta\Licenta\Phase 1.0 Init Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7778339D-2B1A-4403-A531-1DF8BEC725B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A85CCC-58C6-4499-9FE8-3007F4557DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>KeyWordsSearch_Queue</t>
   </si>
   <si>
-    <t>Auction Bidder</t>
+    <t>Darius B</t>
   </si>
 </sst>
 </file>
@@ -549,16 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5234375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1649,12 +1649,12 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1702,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="28.8">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2808,16 +2808,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.89453125" customWidth="1"/>
+    <col min="2" max="2" width="30.1015625" customWidth="1"/>
+    <col min="3" max="3" width="60.3125" customWidth="1"/>
+    <col min="4" max="26" width="65.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
